--- a/downloaded_files/CMPS303_Tutorial-35535.xlsx
+++ b/downloaded_files/CMPS303_Tutorial-35535.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,6 +121,15 @@
   </x:si>
   <x:si>
     <x:t>Ali Khaled Mohamed Hamdy Mohamed Salem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمد سعيد عبدالعزيز محمد ثابت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mohamed Said Abdelaziz Mohamed Sabet</x:t>
   </x:si>
   <x:si>
     <x:t>1240118</x:t>
@@ -353,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1064,7 +1073,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.7013503472</x:v>
+        <x:v>45922.4119309838</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1105,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4364569792</x:v>
+        <x:v>45907.7013503472</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1137,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4379437153</x:v>
+        <x:v>45909.4364569792</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1169,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45909.4379437153</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1201,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1233,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4200497338</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1265,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45907.4200497338</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4143132292</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45907.4143132292</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6647167014</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6822388542</x:v>
+        <x:v>45906.6647167014</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6647606134</x:v>
+        <x:v>45907.6822388542</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1474,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45906.6647606134</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Tutorial-35535.xlsx
+++ b/downloaded_files/CMPS303_Tutorial-35535.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -247,6 +247,12 @@
   </x:si>
   <x:si>
     <x:t>Youssef Bassem Lamey Gindy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد صلاح مصلحي</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -362,7 +368,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +668,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1506,6 +1512,36 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s"/>
+      <x:c r="E26" s="3">
+        <x:v>45926.4125992245</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Tutorial-35535.xlsx
+++ b/downloaded_files/CMPS303_Tutorial-35535.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1220224</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد يحى سعد السيد نافع</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Yehya Saad Nafea</x:t>
-  </x:si>
-  <x:si>
     <x:t>4230144</x:t>
   </x:si>
   <x:si>
@@ -123,15 +114,6 @@
     <x:t>Ali Khaled Mohamed Hamdy Mohamed Salem</x:t>
   </x:si>
   <x:si>
-    <x:t>1230207</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على محمد سعيد عبدالعزيز محمد ثابت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Mohamed Said Abdelaziz Mohamed Sabet</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240118</x:t>
   </x:si>
   <x:si>
@@ -229,24 +211,6 @@
   </x:si>
   <x:si>
     <x:t>Yahia Galal Ezzat Ibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف احمد السيد احمد الشلقاني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef ahmed elsayed ahmed metwaley</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف باسم لمعي جندي جرجس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Bassem Lamey Gindy</x:t>
   </x:si>
   <x:si>
     <x:t>4240061</x:t>
@@ -368,7 +332,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -668,7 +632,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -759,7 +723,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.41445</x:v>
+        <x:v>45907.4202734144</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -791,7 +755,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4202734144</x:v>
+        <x:v>45907.4210927431</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -823,7 +787,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4210927431</x:v>
+        <x:v>45907.4146253472</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -855,7 +819,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4146253472</x:v>
+        <x:v>45906.6651428241</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -887,7 +851,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6651428241</x:v>
+        <x:v>45907.4158237616</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -919,7 +883,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4158237616</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -951,7 +915,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45907.419990162</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -983,7 +947,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.419990162</x:v>
+        <x:v>45906.6656493403</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1015,7 +979,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6656493403</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1047,7 +1011,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45907.7013503472</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1079,7 +1043,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45922.4119309838</x:v>
+        <x:v>45909.4364569792</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1111,7 +1075,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.7013503472</x:v>
+        <x:v>45909.4379437153</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1143,7 +1107,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4364569792</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1175,7 +1139,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4379437153</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1207,7 +1171,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45907.4200497338</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1239,7 +1203,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1271,7 +1235,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4200497338</x:v>
+        <x:v>45907.4143132292</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1303,7 +1267,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1335,7 +1299,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4143132292</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1367,7 +1331,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45906.6647167014</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1395,11 +1359,9 @@
       <x:c r="C22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45926.4125992245</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,132 +1378,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45906.6647167014</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45907.6822388542</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45906.6647606134</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s"/>
-      <x:c r="E26" s="3">
-        <x:v>45926.4125992245</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Tutorial-35535.xlsx
+++ b/downloaded_files/CMPS303_Tutorial-35535.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,15 +121,6 @@
   </x:si>
   <x:si>
     <x:t>Feras Sherif Moustafa Ibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230086</x:t>
-  </x:si>
-  <x:si>
-    <x:t>لجين خالد رمضان محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lojain khaled ramadan mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1220275</x:t>
@@ -332,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -632,7 +623,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1043,7 +1034,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4364569792</x:v>
+        <x:v>45909.4379437153</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1075,7 +1066,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4379437153</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1107,7 +1098,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1139,7 +1130,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.4200497338</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1171,7 +1162,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4200497338</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1203,7 +1194,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45907.4143132292</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1235,7 +1226,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4143132292</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1267,7 +1258,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1299,7 +1290,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45906.6647167014</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1327,11 +1318,9 @@
       <x:c r="C21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45906.6647167014</x:v>
+        <x:v>45926.4125992245</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1348,36 +1337,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s"/>
-      <x:c r="E22" s="3">
-        <x:v>45926.4125992245</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Tutorial-35535.xlsx
+++ b/downloaded_files/CMPS303_Tutorial-35535.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,6 +78,15 @@
     <x:t>Abdelrahman Ali ElSayed Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1240178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الله عمرو شفيق فريد احمد خفاجى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah Khafagy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240085</x:t>
   </x:si>
   <x:si>
@@ -114,15 +123,6 @@
     <x:t>Ali Khaled Mohamed Hamdy Mohamed Salem</x:t>
   </x:si>
   <x:si>
-    <x:t>1240118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فراس شريف مصطفى ابراهيم حلابه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Feras Sherif Moustafa Ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220275</x:t>
   </x:si>
   <x:si>
@@ -202,12 +202,6 @@
   </x:si>
   <x:si>
     <x:t>Yahia Galal Ezzat Ibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد صلاح مصلحي</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -323,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -623,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -633,7 +627,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="38.740625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="59.530625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -874,7 +868,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45928.8757069792</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -906,7 +900,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.419990162</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -938,7 +932,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6656493403</x:v>
+        <x:v>45907.419990162</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -970,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45906.6656493403</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1002,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.7013503472</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1307,36 +1301,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s"/>
-      <x:c r="E21" s="3">
-        <x:v>45926.4125992245</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Tutorial-35535.xlsx
+++ b/downloaded_files/CMPS303_Tutorial-35535.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,6 +202,15 @@
   </x:si>
   <x:si>
     <x:t>Yahia Galal Ezzat Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيى هلال عبدالسلام الانور سعد محمد الحلو</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yahia helal</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -317,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1301,6 +1310,38 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45929.5866128819</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Tutorial-35535.xlsx
+++ b/downloaded_files/CMPS303_Tutorial-35535.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,15 +139,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Magdy Fouad Abdul Elaty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240185</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان محمد عبدالعاطي سيد محمد خليل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marwan Mohamed Abdel Aty Sayed</x:t>
   </x:si>
   <x:si>
     <x:t>1230256</x:t>
@@ -326,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1101,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.4200497338</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4200497338</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45907.4143132292</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4143132292</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45906.6647167014</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1284,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6647167014</x:v>
+        <x:v>45929.5866128819</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1310,38 +1301,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45929.5866128819</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Tutorial-35535.xlsx
+++ b/downloaded_files/CMPS303_Tutorial-35535.xlsx
@@ -75,7 +75,7 @@
     <x:t>عبد الرحمن على السيد محمد السيد الحديدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Ali ElSayed Mohamed</x:t>
+    <x:t>Abdul Rahman Ali Elsayed Muhammad Elsayed Alhadidi</x:t>
   </x:si>
   <x:si>
     <x:t>1240178</x:t>
@@ -129,7 +129,7 @@
     <x:t>محمد عمرو ابراهيم المصري</x:t>
   </x:si>
   <x:si>
-    <x:t>mohamed amr ebrahim elmasry</x:t>
+    <x:t>Mohamed Amr Ibrahim Elmasry</x:t>
   </x:si>
   <x:si>
     <x:t>1220021</x:t>
@@ -165,7 +165,7 @@
     <x:t>مهند محمد فتحى محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohaned Mohammed fathy</x:t>
+    <x:t xml:space="preserve"> Mohaned Mohammed fathy Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1230271</x:t>
